--- a/responses/insecure.xlsx
+++ b/responses/insecure.xlsx
@@ -482,17 +482,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.bloomberg.com/news/articles/2022-10-11/selloff-in-us-listed-china-stocks-worsens-on-covid-growth-fears</t>
+          <t>https://www.bloomberg.com/news/articles/2022-10-11/selloff-in-us-listed-china-stocks-worsens-on-covid-growth-fears?utm_source=google&amp;utm_medium=bd&amp;cmpId=google</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CAIiEBI8f-yal4AzaNWG8ktstbwqGQgEKhAIACoHCAow4uzwCjCF3bsCMIrOrwM</t>
+          <t>CBMinwFodHRwczovL3d3dy5ibG9vbWJlcmcuY29tL25ld3MvYXJ0aWNsZXMvMjAyMi0xMC0xMS9zZWxsb2ZmLWluLXVzLWxpc3RlZC1jaGluYS1zdG9ja3Mtd29yc2Vucy1vbi1jb3ZpZC1ncm93dGgtZmVhcnM_dXRtX3NvdXJjZT1nb29nbGUmdXRtX21lZGl1bT1iZCZjbXBJZD1nb29nbGXSAQA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tue, 11 Oct 2022 20:28:06 GMT</t>
+          <t>Tue, 11 Oct 2022 15:33:47 GMT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
